--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/50_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/50_455-55R22.xlsx
@@ -695,49 +695,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02409684053321085</v>
+        <v>0.02297400770499618</v>
       </c>
       <c r="E2">
-        <v>0.2066701687279229</v>
+        <v>0.2116783733364031</v>
       </c>
       <c r="F2">
-        <v>0.2368748211430806</v>
+        <v>0.2428973352158774</v>
       </c>
       <c r="G2">
-        <v>0.06926493272476017</v>
+        <v>0.06965890011544239</v>
       </c>
       <c r="H2">
-        <v>0.04940570950799093</v>
+        <v>0.04913277970065615</v>
       </c>
       <c r="I2">
-        <v>0.0214843957674714</v>
+        <v>0.02027383382340819</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01623278281605089</v>
+        <v>0.01484586523490443</v>
       </c>
       <c r="L2">
-        <v>0.001869262307145624</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.006627632163958432</v>
+        <v>0.004918161782710363</v>
       </c>
       <c r="N2">
-        <v>0.0007127135213769319</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.03949892543450891</v>
+        <v>0.03889331360492939</v>
       </c>
       <c r="P2">
-        <v>0.194259396732218</v>
+        <v>0.1988508323171154</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09982349075711436</v>
+        <v>0.1012436521990326</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002239612674201767</v>
+        <v>0.0003827871889488425</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01020288532981355</v>
+        <v>0.008613476357437552</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00321146578026286</v>
+        <v>0.001387276320409407</v>
       </c>
       <c r="AA2">
-        <v>0.00443113698871727</v>
+        <v>0.002647905591651158</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01309382709019463</v>
+        <v>0.01160149950607759</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -808,58 +808,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06835532538458586</v>
+        <v>0.06922391149942056</v>
       </c>
       <c r="E3">
-        <v>0.1280394973148889</v>
+        <v>0.1474649344281362</v>
       </c>
       <c r="F3">
-        <v>0.1608763598446709</v>
+        <v>0.1905113507728241</v>
       </c>
       <c r="G3">
-        <v>0.02482800652806261</v>
+        <v>0.0121631893257811</v>
       </c>
       <c r="H3">
-        <v>0.06666678567991512</v>
+        <v>0.06701037532263542</v>
       </c>
       <c r="I3">
-        <v>0.02740556180344403</v>
+        <v>0.01554215153433203</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0415372253663019</v>
+        <v>0.03406759600449449</v>
       </c>
       <c r="L3">
-        <v>0.01554962728700707</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0004366459704207822</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0231587589295313</v>
+        <v>0.009974943507728937</v>
       </c>
       <c r="O3">
-        <v>0.06452825899822606</v>
+        <v>0.0642069433619626</v>
       </c>
       <c r="P3">
-        <v>0.1888555571318137</v>
+        <v>0.227189768947525</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1240539539754357</v>
+        <v>0.1422402160862332</v>
       </c>
       <c r="S3">
-        <v>0.0183028499472165</v>
+        <v>0.003609247650061384</v>
       </c>
       <c r="T3">
-        <v>0.004514514844829508</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02836154878585952</v>
+        <v>0.01679537155886499</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01452952220779053</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -921,25 +921,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3700895542072284</v>
+        <v>0.3735423196464312</v>
       </c>
       <c r="E4">
-        <v>0.09452707538155031</v>
+        <v>0.0949231223631072</v>
       </c>
       <c r="F4">
-        <v>0.1148616482276693</v>
+        <v>0.1154832595328306</v>
       </c>
       <c r="G4">
-        <v>0.02853373487350601</v>
+        <v>0.02819774074818836</v>
       </c>
       <c r="H4">
-        <v>0.03437254933558269</v>
+        <v>0.03410132314243439</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03440368922253909</v>
+        <v>0.03413280845329478</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -948,25 +948,25 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01118834869787645</v>
+        <v>0.01065994825402085</v>
       </c>
       <c r="N4">
-        <v>0.0006453502481165082</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1675113455497269</v>
+        <v>0.1687169815823462</v>
       </c>
       <c r="P4">
-        <v>0.01646238075655795</v>
+        <v>0.01599248331067467</v>
       </c>
       <c r="Q4">
-        <v>0.07218678808315897</v>
+        <v>0.07233502205031306</v>
       </c>
       <c r="R4">
-        <v>0.01282288044175003</v>
+        <v>0.01231261128838216</v>
       </c>
       <c r="S4">
-        <v>0.005365167170670121</v>
+        <v>0.004772172205338703</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001462190466922244</v>
+        <v>0.0008259011424278902</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01341265909464961</v>
+        <v>0.01290893215015548</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01193994933802523</v>
+        <v>0.0114198861379022</v>
       </c>
       <c r="AD4">
-        <v>0.01021468890447012</v>
+        <v>0.009675487992152128</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1037,28 +1037,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01824474329318395</v>
+        <v>0.01855793188252013</v>
       </c>
       <c r="F5">
-        <v>0.1124307001356686</v>
+        <v>0.1120773471849976</v>
       </c>
       <c r="G5">
-        <v>0.2325910761248871</v>
+        <v>0.2313873641106707</v>
       </c>
       <c r="H5">
-        <v>0.06415969934756204</v>
+        <v>0.06414795387513537</v>
       </c>
       <c r="I5">
-        <v>0.06838840851783386</v>
+        <v>0.06834673703077522</v>
       </c>
       <c r="J5">
-        <v>0.0153118610386494</v>
+        <v>0.01564580524718969</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05579236107804458</v>
+        <v>0.0558398301501519</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03945348464695239</v>
+        <v>0.03961658178319438</v>
       </c>
       <c r="P5">
-        <v>0.07585462781139984</v>
+        <v>0.07576011887943115</v>
       </c>
       <c r="Q5">
-        <v>0.1461680220434769</v>
+        <v>0.145575914534759</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1324289274599313</v>
+        <v>0.1319340497035993</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02101987049414588</v>
+        <v>0.02131341987589469</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.005115542882690435</v>
+        <v>0.005521645084140882</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.000921291549764527</v>
+        <v>0.0013570759122966</v>
       </c>
       <c r="AF5">
-        <v>0.002925285466877849</v>
+        <v>0.003346887829922339</v>
       </c>
       <c r="AG5">
-        <v>0.009194098108931192</v>
+        <v>0.009571336915321063</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1147,55 +1147,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02540266555443305</v>
+        <v>0.02514449096108457</v>
       </c>
       <c r="E6">
-        <v>0.2427256254655629</v>
+        <v>0.2441462604637276</v>
       </c>
       <c r="F6">
-        <v>0.2485568686426603</v>
+        <v>0.2500225497186999</v>
       </c>
       <c r="G6">
-        <v>0.04957984733566602</v>
+        <v>0.04950844032861716</v>
       </c>
       <c r="H6">
-        <v>0.03630563650211673</v>
+        <v>0.03613168684390831</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0004509256048816311</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01901688560989294</v>
+        <v>0.01870938116835645</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000748868331838288</v>
+        <v>0.0003002443204373502</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05181354439524598</v>
+        <v>0.05175939259238583</v>
       </c>
       <c r="P6">
-        <v>0.1402060763429704</v>
+        <v>0.1408347526707074</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1118913547139555</v>
+        <v>0.1123013011556683</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.003703203722462036</v>
+        <v>0.0032774018122894</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1207,25 +1207,25 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.004006117884106966</v>
+        <v>0.00358265597151297</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003876287324529264</v>
+        <v>0.003451822477000183</v>
       </c>
       <c r="AA6">
-        <v>0.005250472128443546</v>
+        <v>0.004836622793561018</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02401112004678332</v>
+        <v>0.02374219583017265</v>
       </c>
       <c r="AD6">
-        <v>0.03245450039445103</v>
+        <v>0.03225080089187083</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3322520111057345</v>
+        <v>0.2990068341665355</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.002348487388444417</v>
       </c>
       <c r="F7">
-        <v>0.0945853780052601</v>
+        <v>0.08981194976545166</v>
       </c>
       <c r="G7">
-        <v>0.02030530038105284</v>
+        <v>0.02443040230468381</v>
       </c>
       <c r="H7">
-        <v>0.06173180772496367</v>
+        <v>0.06089413851323439</v>
       </c>
       <c r="I7">
-        <v>0.02726702214728484</v>
+        <v>0.03055813071620101</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1284,37 +1284,37 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01322359418178608</v>
+        <v>0.01819706323477844</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1168507479093671</v>
+        <v>0.1094099952397944</v>
       </c>
       <c r="O7">
-        <v>0.1148196774483174</v>
+        <v>0.1076222409186814</v>
       </c>
       <c r="P7">
-        <v>0.00921649744769994</v>
+        <v>0.01467000465219344</v>
       </c>
       <c r="Q7">
-        <v>0.003292267325610749</v>
+        <v>0.009455479502455904</v>
       </c>
       <c r="R7">
-        <v>0.07490259874107061</v>
+        <v>0.07248710833041747</v>
       </c>
       <c r="S7">
-        <v>0.04935734624866058</v>
+        <v>0.05000210034914546</v>
       </c>
       <c r="T7">
-        <v>0.006879649608089617</v>
+        <v>0.01261310416392196</v>
       </c>
       <c r="U7">
-        <v>0.05253806978881967</v>
+        <v>0.05280178276402651</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.001659584028739524</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1332,25 +1332,25 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.000434793471900104</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>5.225019724901889E-05</v>
       </c>
       <c r="AE7">
-        <v>0.007210031749356658</v>
+        <v>0.01290390751712688</v>
       </c>
       <c r="AF7">
-        <v>0.006764222172149812</v>
+        <v>0.01251150458806592</v>
       </c>
       <c r="AG7">
-        <v>0.008803778014775863</v>
+        <v>0.01430672776753234</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.003822410419420572</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1379,58 +1379,58 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3219646065633954</v>
+        <v>0.3916820900601234</v>
       </c>
       <c r="G8">
-        <v>0.1565678787853275</v>
+        <v>0.181916354292462</v>
       </c>
       <c r="H8">
-        <v>0.1238358118122134</v>
+        <v>0.1404036460058468</v>
       </c>
       <c r="I8">
-        <v>0.02217391028157524</v>
+        <v>0.01147011835632549</v>
       </c>
       <c r="J8">
-        <v>0.01312991634033093</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03263937190701714</v>
+        <v>0.02474302458307219</v>
       </c>
       <c r="L8">
-        <v>0.003724187623811957</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.02019528554952474</v>
+        <v>0.008960711560299968</v>
       </c>
       <c r="O8">
-        <v>0.04451358318441492</v>
+        <v>0.03980258893313726</v>
       </c>
       <c r="P8">
-        <v>0.02535629661800017</v>
+        <v>0.01550620552881699</v>
       </c>
       <c r="Q8">
-        <v>0.1006313392312519</v>
+        <v>0.1109743862530346</v>
       </c>
       <c r="R8">
-        <v>0.001952147690205781</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.06306949861266328</v>
+        <v>0.06333627853473506</v>
       </c>
       <c r="T8">
-        <v>0.001844973006321097</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01402589390476591</v>
+        <v>0.001136330782113241</v>
       </c>
       <c r="V8">
-        <v>0.004845658816466604</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01852391751718405</v>
+        <v>0.006840985555122114</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.015674571577059</v>
+        <v>0.003227279554910745</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.009202211480848637</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.006128939497622249</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1486,58 +1486,58 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08453154498956557</v>
+        <v>0.09214621883094597</v>
       </c>
       <c r="E9">
-        <v>0.1796669855606707</v>
+        <v>0.2251047643833226</v>
       </c>
       <c r="F9">
-        <v>0.2289268723705393</v>
+        <v>0.2939489602476352</v>
       </c>
       <c r="G9">
-        <v>0.07442289909294257</v>
+        <v>0.07801866712307899</v>
       </c>
       <c r="H9">
-        <v>0.0109031056462932</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01859842960368648</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03220851759956017</v>
+        <v>0.01902106611277773</v>
       </c>
       <c r="K9">
-        <v>0.03958367484969123</v>
+        <v>0.02932837299348312</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.04073314986633152</v>
+        <v>0.03093484609587087</v>
       </c>
       <c r="N9">
-        <v>0.0100089917352588</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02688524747485751</v>
+        <v>0.0115814174485779</v>
       </c>
       <c r="P9">
-        <v>0.06859815967033954</v>
+        <v>0.06987817944359999</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.09903942712532932</v>
+        <v>0.1124220161178124</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.03576314335968023</v>
+        <v>0.02398890846691425</v>
       </c>
       <c r="U9">
-        <v>0.008494682400687603</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.004658182294875807</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02834861863200652</v>
+        <v>0.01362658273598106</v>
       </c>
       <c r="AE9">
-        <v>0.008628367727684286</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1599,58 +1599,58 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2140724269116626</v>
+        <v>0.3092831755925045</v>
       </c>
       <c r="E10">
-        <v>0.004117620326260957</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1452518670887771</v>
+        <v>0.195449450637172</v>
       </c>
       <c r="G10">
-        <v>0.04778954250339966</v>
+        <v>0.03424036604222486</v>
       </c>
       <c r="H10">
-        <v>0.01805843275922724</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06064361561984155</v>
+        <v>0.05550184702201481</v>
       </c>
       <c r="J10">
-        <v>0.01731779077393509</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02708881290423134</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0003936073384752718</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.05631750803730821</v>
+        <v>0.0483461810125454</v>
       </c>
       <c r="N10">
-        <v>0.0346070688762715</v>
+        <v>0.01243568905378777</v>
       </c>
       <c r="O10">
-        <v>0.08702289035175378</v>
+        <v>0.09913489958772614</v>
       </c>
       <c r="P10">
-        <v>0.09620729428961755</v>
+        <v>0.1143265067823219</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.07621641691262655</v>
+        <v>0.0812602829270572</v>
       </c>
       <c r="S10">
-        <v>0.04062576550518165</v>
+        <v>0.02239100848751768</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.04379346584670738</v>
+        <v>0.02763059285512757</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02512338560542707</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.001642803620292737</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.003709684729002759</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1715,58 +1715,58 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08172397432172465</v>
+        <v>0.09466351187171496</v>
       </c>
       <c r="F11">
-        <v>0.15215324667063</v>
+        <v>0.2174249531687076</v>
       </c>
       <c r="G11">
-        <v>0.2035232882113767</v>
+        <v>0.3069652838963539</v>
       </c>
       <c r="H11">
-        <v>0.06768422840674362</v>
+        <v>0.07019159293113224</v>
       </c>
       <c r="I11">
-        <v>0.01775254758111387</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02741472062872348</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02746745821447934</v>
+        <v>9.19240228102934E-05</v>
       </c>
       <c r="L11">
-        <v>0.02763827020872949</v>
+        <v>0.0003896571372613574</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.04382879806617433</v>
+        <v>0.02861048732407121</v>
       </c>
       <c r="O11">
-        <v>0.02192508344691319</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.05462478756428528</v>
+        <v>0.04742839054547083</v>
       </c>
       <c r="Q11">
-        <v>0.09051150988885624</v>
+        <v>0.1099805880772655</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09867746395185924</v>
+        <v>0.1242142193062394</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.02497201376226434</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01367023109771037</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0003562888273471496</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01153814553836861</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.02743731998952035</v>
+        <v>3.939171897261902E-05</v>
       </c>
       <c r="AF11">
-        <v>0.007100623623179973</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1951,82 +1951,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02409684053321085</v>
+        <v>0.02297400770499618</v>
       </c>
       <c r="E2">
-        <v>0.2307670092611337</v>
+        <v>0.2346523810413993</v>
       </c>
       <c r="F2">
-        <v>0.4676418304042144</v>
+        <v>0.4775497162572767</v>
       </c>
       <c r="G2">
-        <v>0.5369067631289746</v>
+        <v>0.5472086163727191</v>
       </c>
       <c r="H2">
-        <v>0.5863124726369655</v>
+        <v>0.5963413960733752</v>
       </c>
       <c r="I2">
-        <v>0.6077968684044369</v>
+        <v>0.6166152298967834</v>
       </c>
       <c r="J2">
-        <v>0.6077968684044369</v>
+        <v>0.6166152298967834</v>
       </c>
       <c r="K2">
-        <v>0.6240296512204878</v>
+        <v>0.6314610951316878</v>
       </c>
       <c r="L2">
-        <v>0.6258989135276334</v>
+        <v>0.6314610951316878</v>
       </c>
       <c r="M2">
-        <v>0.6325265456915918</v>
+        <v>0.6363792569143981</v>
       </c>
       <c r="N2">
-        <v>0.6332392592129688</v>
+        <v>0.6363792569143981</v>
       </c>
       <c r="O2">
-        <v>0.6727381846474777</v>
+        <v>0.6752725705193275</v>
       </c>
       <c r="P2">
-        <v>0.8669975813796956</v>
+        <v>0.874123402836443</v>
       </c>
       <c r="Q2">
-        <v>0.8669975813796956</v>
+        <v>0.874123402836443</v>
       </c>
       <c r="R2">
-        <v>0.96682107213681</v>
+        <v>0.9753670550354755</v>
       </c>
       <c r="S2">
-        <v>0.96682107213681</v>
+        <v>0.9753670550354755</v>
       </c>
       <c r="T2">
-        <v>0.96682107213681</v>
+        <v>0.9753670550354755</v>
       </c>
       <c r="U2">
-        <v>0.9690606848110118</v>
+        <v>0.9757498422244243</v>
       </c>
       <c r="V2">
-        <v>0.9690606848110118</v>
+        <v>0.9757498422244243</v>
       </c>
       <c r="W2">
-        <v>0.9690606848110118</v>
+        <v>0.9757498422244243</v>
       </c>
       <c r="X2">
-        <v>0.9792635701408253</v>
+        <v>0.9843633185818619</v>
       </c>
       <c r="Y2">
-        <v>0.9792635701408253</v>
+        <v>0.9843633185818619</v>
       </c>
       <c r="Z2">
-        <v>0.9824750359210882</v>
+        <v>0.9857505949022712</v>
       </c>
       <c r="AA2">
-        <v>0.9869061729098054</v>
+        <v>0.9883985004939224</v>
       </c>
       <c r="AB2">
-        <v>0.9869061729098054</v>
+        <v>0.9883985004939224</v>
       </c>
       <c r="AC2">
-        <v>0.9869061729098054</v>
+        <v>0.9883985004939224</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -2064,64 +2064,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06835532538458586</v>
+        <v>0.06922391149942056</v>
       </c>
       <c r="E3">
-        <v>0.1963948226994748</v>
+        <v>0.2166888459275567</v>
       </c>
       <c r="F3">
-        <v>0.3572711825441456</v>
+        <v>0.4072001967003808</v>
       </c>
       <c r="G3">
-        <v>0.3820991890722082</v>
+        <v>0.4193633860261619</v>
       </c>
       <c r="H3">
-        <v>0.4487659747521233</v>
+        <v>0.4863737613487973</v>
       </c>
       <c r="I3">
-        <v>0.4761715365555674</v>
+        <v>0.5019159128831293</v>
       </c>
       <c r="J3">
-        <v>0.4761715365555674</v>
+        <v>0.5019159128831293</v>
       </c>
       <c r="K3">
-        <v>0.5177087619218693</v>
+        <v>0.5359835088876238</v>
       </c>
       <c r="L3">
-        <v>0.5332583892088764</v>
+        <v>0.5359835088876238</v>
       </c>
       <c r="M3">
-        <v>0.5336950351792972</v>
+        <v>0.5359835088876238</v>
       </c>
       <c r="N3">
-        <v>0.5568537941088285</v>
+        <v>0.5459584523953528</v>
       </c>
       <c r="O3">
-        <v>0.6213820531070546</v>
+        <v>0.6101653957573154</v>
       </c>
       <c r="P3">
-        <v>0.8102376102388683</v>
+        <v>0.8373551647048404</v>
       </c>
       <c r="Q3">
-        <v>0.8102376102388683</v>
+        <v>0.8373551647048404</v>
       </c>
       <c r="R3">
-        <v>0.934291564214304</v>
+        <v>0.9795953807910736</v>
       </c>
       <c r="S3">
-        <v>0.9525944141615206</v>
+        <v>0.983204628441135</v>
       </c>
       <c r="T3">
-        <v>0.95710892900635</v>
+        <v>0.983204628441135</v>
       </c>
       <c r="U3">
-        <v>0.9854704777922095</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9854704777922095</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9854704777922095</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -2177,106 +2177,106 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3700895542072284</v>
+        <v>0.3735423196464312</v>
       </c>
       <c r="E4">
-        <v>0.4646166295887788</v>
+        <v>0.4684654420095384</v>
       </c>
       <c r="F4">
-        <v>0.579478277816448</v>
+        <v>0.583948701542369</v>
       </c>
       <c r="G4">
-        <v>0.608012012689954</v>
+        <v>0.6121464422905574</v>
       </c>
       <c r="H4">
-        <v>0.6423845620255366</v>
+        <v>0.6462477654329918</v>
       </c>
       <c r="I4">
-        <v>0.6423845620255366</v>
+        <v>0.6462477654329918</v>
       </c>
       <c r="J4">
-        <v>0.6767882512480757</v>
+        <v>0.6803805738862866</v>
       </c>
       <c r="K4">
-        <v>0.6767882512480757</v>
+        <v>0.6803805738862866</v>
       </c>
       <c r="L4">
-        <v>0.6767882512480757</v>
+        <v>0.6803805738862866</v>
       </c>
       <c r="M4">
-        <v>0.6879765999459522</v>
+        <v>0.6910405221403074</v>
       </c>
       <c r="N4">
-        <v>0.6886219501940687</v>
+        <v>0.6910405221403074</v>
       </c>
       <c r="O4">
-        <v>0.8561332957437955</v>
+        <v>0.8597575037226536</v>
       </c>
       <c r="P4">
-        <v>0.8725956765003534</v>
+        <v>0.8757499870333283</v>
       </c>
       <c r="Q4">
-        <v>0.9447824645835123</v>
+        <v>0.9480850090836414</v>
       </c>
       <c r="R4">
-        <v>0.9576053450252624</v>
+        <v>0.9603976203720235</v>
       </c>
       <c r="S4">
-        <v>0.9629705121959325</v>
+        <v>0.9651697925773621</v>
       </c>
       <c r="T4">
-        <v>0.9629705121959325</v>
+        <v>0.9651697925773621</v>
       </c>
       <c r="U4">
-        <v>0.9629705121959325</v>
+        <v>0.9651697925773621</v>
       </c>
       <c r="V4">
-        <v>0.9629705121959325</v>
+        <v>0.9651697925773621</v>
       </c>
       <c r="W4">
-        <v>0.9629705121959325</v>
+        <v>0.9651697925773621</v>
       </c>
       <c r="X4">
-        <v>0.9644327026628547</v>
+        <v>0.96599569371979</v>
       </c>
       <c r="Y4">
-        <v>0.9644327026628547</v>
+        <v>0.96599569371979</v>
       </c>
       <c r="Z4">
-        <v>0.9778453617575044</v>
+        <v>0.9789046258699454</v>
       </c>
       <c r="AA4">
-        <v>0.9778453617575044</v>
+        <v>0.9789046258699454</v>
       </c>
       <c r="AB4">
-        <v>0.9778453617575044</v>
+        <v>0.9789046258699454</v>
       </c>
       <c r="AC4">
-        <v>0.9897853110955296</v>
+        <v>0.9903245120078477</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,103 +2293,103 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01824474329318395</v>
+        <v>0.01855793188252013</v>
       </c>
       <c r="F5">
-        <v>0.1306754434288525</v>
+        <v>0.1306352790675177</v>
       </c>
       <c r="G5">
-        <v>0.3632665195537396</v>
+        <v>0.3620226431781884</v>
       </c>
       <c r="H5">
-        <v>0.4274262189013017</v>
+        <v>0.4261705970533238</v>
       </c>
       <c r="I5">
-        <v>0.4958146274191355</v>
+        <v>0.494517334084099</v>
       </c>
       <c r="J5">
-        <v>0.5111264884577849</v>
+        <v>0.5101631393312887</v>
       </c>
       <c r="K5">
-        <v>0.5111264884577849</v>
+        <v>0.5101631393312887</v>
       </c>
       <c r="L5">
-        <v>0.5669188495358294</v>
+        <v>0.5660029694814406</v>
       </c>
       <c r="M5">
-        <v>0.5669188495358294</v>
+        <v>0.5660029694814406</v>
       </c>
       <c r="N5">
-        <v>0.5669188495358294</v>
+        <v>0.5660029694814406</v>
       </c>
       <c r="O5">
-        <v>0.6063723341827818</v>
+        <v>0.605619551264635</v>
       </c>
       <c r="P5">
-        <v>0.6822269619941816</v>
+        <v>0.6813796701440661</v>
       </c>
       <c r="Q5">
-        <v>0.8283949840376585</v>
+        <v>0.8269555846788251</v>
       </c>
       <c r="R5">
-        <v>0.8283949840376585</v>
+        <v>0.8269555846788251</v>
       </c>
       <c r="S5">
-        <v>0.9608239114975898</v>
+        <v>0.9588896343824245</v>
       </c>
       <c r="T5">
-        <v>0.9608239114975898</v>
+        <v>0.9588896343824245</v>
       </c>
       <c r="U5">
-        <v>0.9608239114975898</v>
+        <v>0.9588896343824245</v>
       </c>
       <c r="V5">
-        <v>0.9818437819917357</v>
+        <v>0.9802030542583191</v>
       </c>
       <c r="W5">
-        <v>0.9818437819917357</v>
+        <v>0.9802030542583191</v>
       </c>
       <c r="X5">
-        <v>0.9818437819917357</v>
+        <v>0.9802030542583191</v>
       </c>
       <c r="Y5">
-        <v>0.9818437819917357</v>
+        <v>0.9802030542583191</v>
       </c>
       <c r="Z5">
-        <v>0.9818437819917357</v>
+        <v>0.9802030542583191</v>
       </c>
       <c r="AA5">
-        <v>0.9869593248744262</v>
+        <v>0.98572469934246</v>
       </c>
       <c r="AB5">
-        <v>0.9869593248744262</v>
+        <v>0.98572469934246</v>
       </c>
       <c r="AC5">
-        <v>0.9869593248744262</v>
+        <v>0.98572469934246</v>
       </c>
       <c r="AD5">
-        <v>0.9869593248744262</v>
+        <v>0.98572469934246</v>
       </c>
       <c r="AE5">
-        <v>0.9878806164241907</v>
+        <v>0.9870817752547566</v>
       </c>
       <c r="AF5">
-        <v>0.9908059018910685</v>
+        <v>0.9904286630846789</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2403,106 +2403,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02540266555443305</v>
+        <v>0.02514449096108457</v>
       </c>
       <c r="E6">
-        <v>0.268128291019996</v>
+        <v>0.2692907514248122</v>
       </c>
       <c r="F6">
-        <v>0.5166851596626563</v>
+        <v>0.519313301143512</v>
       </c>
       <c r="G6">
-        <v>0.5662650069983223</v>
+        <v>0.5688217414721292</v>
       </c>
       <c r="H6">
-        <v>0.602570643500439</v>
+        <v>0.6049534283160375</v>
       </c>
       <c r="I6">
-        <v>0.602570643500439</v>
+        <v>0.6049534283160375</v>
       </c>
       <c r="J6">
-        <v>0.6030215691053206</v>
+        <v>0.6049534283160375</v>
       </c>
       <c r="K6">
-        <v>0.6220384547152135</v>
+        <v>0.6236628094843939</v>
       </c>
       <c r="L6">
-        <v>0.6220384547152135</v>
+        <v>0.6236628094843939</v>
       </c>
       <c r="M6">
-        <v>0.6227873230470518</v>
+        <v>0.6239630538048313</v>
       </c>
       <c r="N6">
-        <v>0.6227873230470518</v>
+        <v>0.6239630538048313</v>
       </c>
       <c r="O6">
-        <v>0.6746008674422977</v>
+        <v>0.6757224463972171</v>
       </c>
       <c r="P6">
-        <v>0.8148069437852681</v>
+        <v>0.8165571990679246</v>
       </c>
       <c r="Q6">
-        <v>0.8148069437852681</v>
+        <v>0.8165571990679246</v>
       </c>
       <c r="R6">
-        <v>0.9266982984992236</v>
+        <v>0.9288585002235928</v>
       </c>
       <c r="S6">
-        <v>0.9266982984992236</v>
+        <v>0.9288585002235928</v>
       </c>
       <c r="T6">
-        <v>0.9304015022216856</v>
+        <v>0.9321359020358823</v>
       </c>
       <c r="U6">
-        <v>0.9304015022216856</v>
+        <v>0.9321359020358823</v>
       </c>
       <c r="V6">
-        <v>0.9304015022216856</v>
+        <v>0.9321359020358823</v>
       </c>
       <c r="W6">
-        <v>0.9304015022216856</v>
+        <v>0.9321359020358823</v>
       </c>
       <c r="X6">
-        <v>0.9344076201057926</v>
+        <v>0.9357185580073952</v>
       </c>
       <c r="Y6">
-        <v>0.9344076201057926</v>
+        <v>0.9357185580073952</v>
       </c>
       <c r="Z6">
-        <v>0.9382839074303219</v>
+        <v>0.9391703804843954</v>
       </c>
       <c r="AA6">
-        <v>0.9435343795587654</v>
+        <v>0.9440070032779564</v>
       </c>
       <c r="AB6">
-        <v>0.9435343795587654</v>
+        <v>0.9440070032779564</v>
       </c>
       <c r="AC6">
-        <v>0.9675454996055487</v>
+        <v>0.9677491991081291</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2516,106 +2516,106 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3322520111057345</v>
+        <v>0.2990068341665355</v>
       </c>
       <c r="E7">
-        <v>0.3322520111057345</v>
+        <v>0.3013553215549799</v>
       </c>
       <c r="F7">
-        <v>0.4268373891109946</v>
+        <v>0.3911672713204316</v>
       </c>
       <c r="G7">
-        <v>0.4471426894920474</v>
+        <v>0.4155976736251153</v>
       </c>
       <c r="H7">
-        <v>0.5088744972170111</v>
+        <v>0.4764918121383497</v>
       </c>
       <c r="I7">
-        <v>0.5361415193642959</v>
+        <v>0.5070499428545507</v>
       </c>
       <c r="J7">
-        <v>0.5361415193642959</v>
+        <v>0.5070499428545507</v>
       </c>
       <c r="K7">
-        <v>0.5361415193642959</v>
+        <v>0.5070499428545507</v>
       </c>
       <c r="L7">
-        <v>0.549365113546082</v>
+        <v>0.5252470060893292</v>
       </c>
       <c r="M7">
-        <v>0.549365113546082</v>
+        <v>0.5252470060893292</v>
       </c>
       <c r="N7">
-        <v>0.6662158614554491</v>
+        <v>0.6346570013291236</v>
       </c>
       <c r="O7">
-        <v>0.7810355389037664</v>
+        <v>0.7422792422478051</v>
       </c>
       <c r="P7">
-        <v>0.7902520363514663</v>
+        <v>0.7569492468999985</v>
       </c>
       <c r="Q7">
-        <v>0.7935443036770771</v>
+        <v>0.7664047264024545</v>
       </c>
       <c r="R7">
-        <v>0.8684469024181477</v>
+        <v>0.838891834732872</v>
       </c>
       <c r="S7">
-        <v>0.9178042486668083</v>
+        <v>0.8888939350820174</v>
       </c>
       <c r="T7">
-        <v>0.9246838982748979</v>
+        <v>0.9015070392459393</v>
       </c>
       <c r="U7">
-        <v>0.9772219680637176</v>
+        <v>0.9543088220099658</v>
       </c>
       <c r="V7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="W7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="X7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="Y7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="Z7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="AA7">
-        <v>0.9772219680637176</v>
+        <v>0.9559684060387054</v>
       </c>
       <c r="AB7">
-        <v>0.9772219680637176</v>
+        <v>0.9564031995106055</v>
       </c>
       <c r="AC7">
-        <v>0.9772219680637176</v>
+        <v>0.9564031995106055</v>
       </c>
       <c r="AD7">
-        <v>0.9772219680637176</v>
+        <v>0.9564554497078545</v>
       </c>
       <c r="AE7">
-        <v>0.9844319998130743</v>
+        <v>0.9693593572249813</v>
       </c>
       <c r="AF7">
-        <v>0.9911962219852241</v>
+        <v>0.9818708618130473</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>0.9961775895805797</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2635,100 +2635,100 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3219646065633954</v>
+        <v>0.3916820900601234</v>
       </c>
       <c r="G8">
-        <v>0.4785324853487228</v>
+        <v>0.5735984443525853</v>
       </c>
       <c r="H8">
-        <v>0.6023682971609363</v>
+        <v>0.7140020903584321</v>
       </c>
       <c r="I8">
-        <v>0.6245422074425115</v>
+        <v>0.7254722087147576</v>
       </c>
       <c r="J8">
-        <v>0.6376721237828424</v>
+        <v>0.7254722087147576</v>
       </c>
       <c r="K8">
-        <v>0.6703114956898596</v>
+        <v>0.7502152332978298</v>
       </c>
       <c r="L8">
-        <v>0.6740356833136716</v>
+        <v>0.7502152332978298</v>
       </c>
       <c r="M8">
-        <v>0.6740356833136716</v>
+        <v>0.7502152332978298</v>
       </c>
       <c r="N8">
-        <v>0.6942309688631964</v>
+        <v>0.7591759448581298</v>
       </c>
       <c r="O8">
-        <v>0.7387445520476112</v>
+        <v>0.798978533791267</v>
       </c>
       <c r="P8">
-        <v>0.7641008486656115</v>
+        <v>0.814484739320084</v>
       </c>
       <c r="Q8">
-        <v>0.8647321878968633</v>
+        <v>0.9254591255731186</v>
       </c>
       <c r="R8">
-        <v>0.8666843355870691</v>
+        <v>0.9254591255731186</v>
       </c>
       <c r="S8">
-        <v>0.9297538341997325</v>
+        <v>0.9887954041078537</v>
       </c>
       <c r="T8">
-        <v>0.9315988072060536</v>
+        <v>0.9887954041078537</v>
       </c>
       <c r="U8">
-        <v>0.9456247011108195</v>
+        <v>0.989931734889967</v>
       </c>
       <c r="V8">
-        <v>0.9504703599272861</v>
+        <v>0.989931734889967</v>
       </c>
       <c r="W8">
-        <v>0.9689942774444702</v>
+        <v>0.9967727204450891</v>
       </c>
       <c r="X8">
-        <v>0.9689942774444702</v>
+        <v>0.9967727204450891</v>
       </c>
       <c r="Y8">
-        <v>0.9689942774444702</v>
+        <v>0.9967727204450891</v>
       </c>
       <c r="Z8">
-        <v>0.9689942774444702</v>
+        <v>0.9967727204450891</v>
       </c>
       <c r="AA8">
-        <v>0.9689942774444702</v>
+        <v>0.9967727204450891</v>
       </c>
       <c r="AB8">
-        <v>0.9846688490215292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.9846688490215292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.9846688490215292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>0.9938710605023778</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,85 +2742,85 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08453154498956557</v>
+        <v>0.09214621883094597</v>
       </c>
       <c r="E9">
-        <v>0.2641985305502362</v>
+        <v>0.3172509832142686</v>
       </c>
       <c r="F9">
-        <v>0.4931254029207755</v>
+        <v>0.6111999434619038</v>
       </c>
       <c r="G9">
-        <v>0.5675483020137181</v>
+        <v>0.6892186105849828</v>
       </c>
       <c r="H9">
-        <v>0.5784514076600112</v>
+        <v>0.6892186105849828</v>
       </c>
       <c r="I9">
-        <v>0.5970498372636978</v>
+        <v>0.6892186105849828</v>
       </c>
       <c r="J9">
-        <v>0.629258354863258</v>
+        <v>0.7082396766977606</v>
       </c>
       <c r="K9">
-        <v>0.6688420297129493</v>
+        <v>0.7375680496912437</v>
       </c>
       <c r="L9">
-        <v>0.6688420297129493</v>
+        <v>0.7375680496912437</v>
       </c>
       <c r="M9">
-        <v>0.7095751795792807</v>
+        <v>0.7685028957871145</v>
       </c>
       <c r="N9">
-        <v>0.7195841713145396</v>
+        <v>0.7685028957871145</v>
       </c>
       <c r="O9">
-        <v>0.7464694187893971</v>
+        <v>0.7800843132356924</v>
       </c>
       <c r="P9">
-        <v>0.8150675784597367</v>
+        <v>0.8499624926792924</v>
       </c>
       <c r="Q9">
-        <v>0.8150675784597367</v>
+        <v>0.8499624926792924</v>
       </c>
       <c r="R9">
-        <v>0.914107005585066</v>
+        <v>0.9623845087971048</v>
       </c>
       <c r="S9">
-        <v>0.914107005585066</v>
+        <v>0.9623845087971048</v>
       </c>
       <c r="T9">
-        <v>0.9498701489447462</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="U9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="V9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="W9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="X9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="Y9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="Z9">
-        <v>0.9583648313454338</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="AA9">
-        <v>0.9630230136403096</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="AB9">
-        <v>0.9630230136403096</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="AC9">
-        <v>0.9630230136403096</v>
+        <v>0.9863734172640191</v>
       </c>
       <c r="AD9">
-        <v>0.9913716322723162</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2855,106 +2855,106 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2140724269116626</v>
+        <v>0.3092831755925045</v>
       </c>
       <c r="E10">
-        <v>0.2181900472379236</v>
+        <v>0.3092831755925045</v>
       </c>
       <c r="F10">
-        <v>0.3634419143267007</v>
+        <v>0.5047326262296765</v>
       </c>
       <c r="G10">
-        <v>0.4112314568301004</v>
+        <v>0.5389729922719013</v>
       </c>
       <c r="H10">
-        <v>0.4292898895893276</v>
+        <v>0.5389729922719013</v>
       </c>
       <c r="I10">
-        <v>0.4899335052091692</v>
+        <v>0.5944748392939161</v>
       </c>
       <c r="J10">
-        <v>0.5072512959831043</v>
+        <v>0.5944748392939161</v>
       </c>
       <c r="K10">
-        <v>0.5343401088873356</v>
+        <v>0.5944748392939161</v>
       </c>
       <c r="L10">
-        <v>0.5347337162258109</v>
+        <v>0.5944748392939161</v>
       </c>
       <c r="M10">
-        <v>0.5910512242631191</v>
+        <v>0.6428210203064615</v>
       </c>
       <c r="N10">
-        <v>0.6256582931393906</v>
+        <v>0.6552567093602493</v>
       </c>
       <c r="O10">
-        <v>0.7126811834911444</v>
+        <v>0.7543916089479754</v>
       </c>
       <c r="P10">
-        <v>0.8088884777807619</v>
+        <v>0.8687181157302973</v>
       </c>
       <c r="Q10">
-        <v>0.8088884777807619</v>
+        <v>0.8687181157302973</v>
       </c>
       <c r="R10">
-        <v>0.8851048946933885</v>
+        <v>0.9499783986573546</v>
       </c>
       <c r="S10">
-        <v>0.9257306601985701</v>
+        <v>0.9723694071448722</v>
       </c>
       <c r="T10">
-        <v>0.9257306601985701</v>
+        <v>0.9723694071448722</v>
       </c>
       <c r="U10">
-        <v>0.9695241260452775</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V10">
-        <v>0.9695241260452775</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W10">
-        <v>0.9695241260452775</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X10">
-        <v>0.9946475116507045</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y10">
-        <v>0.9946475116507045</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.9946475116507045</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.9962903152709973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.9962903152709973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC10">
-        <v>0.9962903152709973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2971,103 +2971,103 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08172397432172465</v>
+        <v>0.09466351187171496</v>
       </c>
       <c r="F11">
-        <v>0.2338772209923546</v>
+        <v>0.3120884650404225</v>
       </c>
       <c r="G11">
-        <v>0.4374005092037313</v>
+        <v>0.6190537489367764</v>
       </c>
       <c r="H11">
-        <v>0.5050847376104749</v>
+        <v>0.6892453418679086</v>
       </c>
       <c r="I11">
-        <v>0.5228372851915888</v>
+        <v>0.6892453418679086</v>
       </c>
       <c r="J11">
-        <v>0.5502520058203123</v>
+        <v>0.6892453418679086</v>
       </c>
       <c r="K11">
-        <v>0.5777194640347917</v>
+        <v>0.689337265890719</v>
       </c>
       <c r="L11">
-        <v>0.6053577342435211</v>
+        <v>0.6897269230279803</v>
       </c>
       <c r="M11">
-        <v>0.6053577342435211</v>
+        <v>0.6897269230279803</v>
       </c>
       <c r="N11">
-        <v>0.6491865323096955</v>
+        <v>0.7183374103520516</v>
       </c>
       <c r="O11">
-        <v>0.6711116157566087</v>
+        <v>0.7183374103520516</v>
       </c>
       <c r="P11">
-        <v>0.725736403320894</v>
+        <v>0.7657658008975224</v>
       </c>
       <c r="Q11">
-        <v>0.8162479132097502</v>
+        <v>0.875746388974788</v>
       </c>
       <c r="R11">
-        <v>0.8162479132097502</v>
+        <v>0.875746388974788</v>
       </c>
       <c r="S11">
-        <v>0.9149253771616095</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="T11">
-        <v>0.9149253771616095</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="U11">
-        <v>0.9398973909238738</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="V11">
-        <v>0.9535676220215842</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="W11">
-        <v>0.9535676220215842</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="X11">
-        <v>0.9535676220215842</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="Y11">
-        <v>0.9535676220215842</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="Z11">
-        <v>0.9535676220215842</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="AA11">
-        <v>0.9539239108489314</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="AB11">
-        <v>0.9654620563873</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="AC11">
-        <v>0.9654620563873</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="AD11">
-        <v>0.9654620563873</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="AE11">
-        <v>0.9928993763768204</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5369067631289746</v>
+        <v>0.5472086163727191</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3176,16 +3176,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5177087619218693</v>
+        <v>0.5019159128831293</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.579478277816448</v>
+        <v>0.583948701542369</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5111264884577849</v>
+        <v>0.5101631393312887</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5166851596626563</v>
+        <v>0.519313301143512</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3340,16 +3340,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5070499428545507</v>
+      </c>
+      <c r="G7">
         <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5088744972170111</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -3381,16 +3381,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6023682971609363</v>
+        <v>0.5735984443525853</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -3422,16 +3422,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5675483020137181</v>
+        <v>0.6111999434619038</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -3463,16 +3463,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5072512959831043</v>
+        <v>0.5047326262296765</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -3504,16 +3504,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5050847376104749</v>
+        <v>0.6190537489367764</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8669975813796956</v>
+        <v>0.874123402836443</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8102376102388683</v>
+        <v>0.8373551647048404</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8561332957437955</v>
+        <v>0.8597575037226536</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8283949840376585</v>
+        <v>0.8269555846788251</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8148069437852681</v>
+        <v>0.8165571990679246</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7810355389037664</v>
+        <v>0.7422792422478051</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3845,16 +3845,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7387445520476112</v>
+        <v>0.7140020903584321</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -3886,16 +3886,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7095751795792807</v>
+        <v>0.7082396766977606</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7126811834911444</v>
+        <v>0.7543916089479754</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -3968,16 +3968,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.725736403320894</v>
+        <v>0.7183374103520516</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8669975813796956</v>
+        <v>0.874123402836443</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8102376102388683</v>
+        <v>0.8373551647048404</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8561332957437955</v>
+        <v>0.8597575037226536</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8283949840376585</v>
+        <v>0.8269555846788251</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8148069437852681</v>
+        <v>0.8165571990679246</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8684469024181477</v>
+        <v>0.838891834732872</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -4309,16 +4309,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8647321878968633</v>
+        <v>0.814484739320084</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8150675784597367</v>
+        <v>0.8499624926792924</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8088884777807619</v>
+        <v>0.8687181157302973</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8162479132097502</v>
+        <v>0.875746388974788</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.96682107213681</v>
+        <v>0.9753670550354755</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.934291564214304</v>
+        <v>0.9795953807910736</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9447824645835123</v>
+        <v>0.9480850090836414</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9608239114975898</v>
+        <v>0.9588896343824245</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9266982984992236</v>
+        <v>0.9288585002235928</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -4732,16 +4732,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9015070392459393</v>
+      </c>
+      <c r="G7">
         <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9178042486668083</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4773,16 +4773,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9297538341997325</v>
+        <v>0.9254591255731186</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.914107005585066</v>
+        <v>0.9623845087971048</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -4855,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9257306601985701</v>
+        <v>0.9499783986573546</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9149253771616095</v>
+        <v>0.9999606082810273</v>
       </c>
       <c r="G11">
         <v>16</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/50_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/50_455-55R22.xlsx
@@ -162,40 +162,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -695,49 +695,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02297400770499618</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2116783733364031</v>
+        <v>0.2525082697093372</v>
       </c>
       <c r="F2">
-        <v>0.2428973352158774</v>
+        <v>0.2945922828258891</v>
       </c>
       <c r="G2">
-        <v>0.06965890011544239</v>
+        <v>0.06106214165066372</v>
       </c>
       <c r="H2">
-        <v>0.04913277970065615</v>
+        <v>0.03339237082027213</v>
       </c>
       <c r="I2">
-        <v>0.02027383382340819</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01484586523490443</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.004918161782710363</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.03889331360492939</v>
+        <v>0.01958929091189215</v>
       </c>
       <c r="P2">
-        <v>0.1988508323171154</v>
+        <v>0.2352163941308691</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1012436521990326</v>
+        <v>0.1036392499510768</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0003827871889488425</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.008613476357437552</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001387276320409407</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002647905591651158</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01160149950607759</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -808,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06922391149942056</v>
+        <v>0.06649175130196754</v>
       </c>
       <c r="E3">
-        <v>0.1474649344281362</v>
+        <v>0.1594560814720949</v>
       </c>
       <c r="F3">
-        <v>0.1905113507728241</v>
+        <v>0.2106029237795415</v>
       </c>
       <c r="G3">
-        <v>0.0121631893257811</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.06701037532263542</v>
+        <v>0.0638616743898896</v>
       </c>
       <c r="I3">
-        <v>0.01554215153433203</v>
+        <v>0.002708218435139014</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03406759600449449</v>
+        <v>0.0247197601022466</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -838,28 +838,28 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.009974943507728937</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0642069433619626</v>
+        <v>0.06053069577220302</v>
       </c>
       <c r="P3">
-        <v>0.227189768947525</v>
+        <v>0.2541834452205445</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1422402160862332</v>
+        <v>0.1532481815392794</v>
       </c>
       <c r="S3">
-        <v>0.003609247650061384</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01679537155886499</v>
+        <v>0.004197267987093916</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -921,25 +921,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3735423196464312</v>
+        <v>0.4844663408805258</v>
       </c>
       <c r="E4">
-        <v>0.0949231223631072</v>
+        <v>0.09681746151217011</v>
       </c>
       <c r="F4">
-        <v>0.1154832595328306</v>
+        <v>0.1254232223901553</v>
       </c>
       <c r="G4">
-        <v>0.02819774074818836</v>
+        <v>0.003981003505486608</v>
       </c>
       <c r="H4">
-        <v>0.03410132314243439</v>
+        <v>0.01219478461498089</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03413280845329478</v>
+        <v>0.01223859080490105</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -948,25 +948,25 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01065994825402085</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1687169815823462</v>
+        <v>0.1994884443788497</v>
       </c>
       <c r="P4">
-        <v>0.01599248331067467</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.07233502205031306</v>
+        <v>0.06539015191293046</v>
       </c>
       <c r="R4">
-        <v>0.01231261128838216</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004772172205338703</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0008259011424278902</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01290893215015548</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0114198861379022</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.009675487992152128</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1037,28 +1037,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01855793188252013</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1120773471849976</v>
+        <v>0.1246384801741895</v>
       </c>
       <c r="G5">
-        <v>0.2313873641106707</v>
+        <v>0.2975407104657481</v>
       </c>
       <c r="H5">
-        <v>0.06414795387513537</v>
+        <v>0.05517994506259771</v>
       </c>
       <c r="I5">
-        <v>0.06834673703077522</v>
+        <v>0.06126475663858651</v>
       </c>
       <c r="J5">
-        <v>0.01564580524718969</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0558398301501519</v>
+        <v>0.04313994072262053</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03961658178319438</v>
+        <v>0.0196294602323839</v>
       </c>
       <c r="P5">
-        <v>0.07576011887943115</v>
+        <v>0.07200811489688004</v>
       </c>
       <c r="Q5">
-        <v>0.145575914534759</v>
+        <v>0.1731840856111075</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1319340497035993</v>
+        <v>0.1534145061958863</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02131341987589469</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.005521645084140882</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0013570759122966</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003346887829922339</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.009571336915321063</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02514449096108457</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2441462604637276</v>
+        <v>0.3074547683701666</v>
       </c>
       <c r="F6">
-        <v>0.2500225497186999</v>
+        <v>0.3157322559521805</v>
       </c>
       <c r="G6">
-        <v>0.04950844032861716</v>
+        <v>0.03328308123012517</v>
       </c>
       <c r="H6">
-        <v>0.03613168684390831</v>
+        <v>0.01444025269447269</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1168,34 +1168,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01870938116835645</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003002443204373502</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05175939259238583</v>
+        <v>0.03645382872103289</v>
       </c>
       <c r="P6">
-        <v>0.1408347526707074</v>
+        <v>0.1619276022062029</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1123013011556683</v>
+        <v>0.1217346708613268</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0032774018122894</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1207,25 +1207,25 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.00358265597151297</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003451822477000183</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004836622793561018</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02374219583017265</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03225080089187083</v>
+        <v>0.008973539964492502</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2990068341665355</v>
+        <v>0.4412427660227553</v>
       </c>
       <c r="E7">
-        <v>0.002348487388444417</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08981194976545166</v>
+        <v>0.09944024610971235</v>
       </c>
       <c r="G7">
-        <v>0.02443040230468381</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.06089413851323439</v>
+        <v>0.05219157277491449</v>
       </c>
       <c r="I7">
-        <v>0.03055813071620101</v>
+        <v>0.002625714896441404</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1284,37 +1284,37 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01819706323477844</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1094099952397944</v>
+        <v>0.1314613987668567</v>
       </c>
       <c r="O7">
-        <v>0.1076222409186814</v>
+        <v>0.1285403955420823</v>
       </c>
       <c r="P7">
-        <v>0.01467000465219344</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.009455479502455904</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.07248710833041747</v>
+        <v>0.0711332706473721</v>
       </c>
       <c r="S7">
-        <v>0.05000210034914546</v>
+        <v>0.03439512377410259</v>
       </c>
       <c r="T7">
-        <v>0.01261310416392196</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.05280178276402651</v>
+        <v>0.0389695114657627</v>
       </c>
       <c r="V7">
-        <v>0.001659584028739524</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1332,25 +1332,25 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.000434793471900104</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>5.225019724901889E-05</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.01290390751712688</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.01251150458806592</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.01430672776753234</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.003822410419420572</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1379,22 +1379,22 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3916820900601234</v>
+        <v>0.4492301901685207</v>
       </c>
       <c r="G8">
-        <v>0.181916354292462</v>
+        <v>0.1977561645602136</v>
       </c>
       <c r="H8">
-        <v>0.1404036460058468</v>
+        <v>0.1479893719592466</v>
       </c>
       <c r="I8">
-        <v>0.01147011835632549</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02474302458307219</v>
+        <v>0.009331635665464784</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1403,34 +1403,34 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.008960711560299968</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03980258893313726</v>
+        <v>0.02738553401620796</v>
       </c>
       <c r="P8">
-        <v>0.01550620552881699</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1109743862530346</v>
+        <v>0.1127086127178552</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.06333627853473506</v>
+        <v>0.0555984909124911</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.001136330782113241</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.006840985555122114</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.003227279554910745</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09214621883094597</v>
+        <v>0.0934059731365308</v>
       </c>
       <c r="E9">
-        <v>0.2251047643833226</v>
+        <v>0.2453702234911857</v>
       </c>
       <c r="F9">
-        <v>0.2939489602476352</v>
+        <v>0.3240553247182297</v>
       </c>
       <c r="G9">
-        <v>0.07801866712307899</v>
+        <v>0.07725896433981602</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1504,37 +1504,37 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01902106611277773</v>
+        <v>0.009827975432663333</v>
       </c>
       <c r="K9">
-        <v>0.02932837299348312</v>
+        <v>0.02160865607108637</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.03093484609587087</v>
+        <v>0.02344476581269829</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0115814174485779</v>
+        <v>0.00132486923922372</v>
       </c>
       <c r="P9">
-        <v>0.06987817944359999</v>
+        <v>0.06795483798528988</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1124220161178124</v>
+        <v>0.1165800859567393</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.02398890846691425</v>
+        <v>0.0155059439760923</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.01362658273598106</v>
+        <v>0.003662379840444558</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1599,58 +1599,58 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3092831755925045</v>
+        <v>0.3065342685920178</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.195449450637172</v>
+        <v>0.1940854453489081</v>
       </c>
       <c r="G10">
-        <v>0.03424036604222486</v>
+        <v>0.03483763134726722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.05550184702201481</v>
+        <v>0.05584044503469846</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.001013833783124053</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0483461810125454</v>
+        <v>0.04877183489652288</v>
       </c>
       <c r="N10">
-        <v>0.01243568905378777</v>
+        <v>0.01329823017676196</v>
       </c>
       <c r="O10">
-        <v>0.09913489958772614</v>
+        <v>0.09894265764738645</v>
       </c>
       <c r="P10">
-        <v>0.1143265067823219</v>
+        <v>0.1139494436668562</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0812602829270572</v>
+        <v>0.08128550366948924</v>
       </c>
       <c r="S10">
-        <v>0.02239100848751768</v>
+        <v>0.02313243314052738</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02763059285512757</v>
+        <v>0.02830827269644033</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1715,49 +1715,49 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09466351187171496</v>
+        <v>0.09440352953849744</v>
       </c>
       <c r="F11">
-        <v>0.2174249531687076</v>
+        <v>0.2143480861915791</v>
       </c>
       <c r="G11">
-        <v>0.3069652838963539</v>
+        <v>0.3018338240440308</v>
       </c>
       <c r="H11">
-        <v>0.07019159293113224</v>
+        <v>0.07049314337190678</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.001912167082045615</v>
       </c>
       <c r="K11">
-        <v>9.19240228102934E-05</v>
+        <v>0.002001981815770304</v>
       </c>
       <c r="L11">
-        <v>0.0003896571372613574</v>
+        <v>0.002292883144693109</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.02861048732407121</v>
+        <v>0.02986615802136836</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.04742839054547083</v>
+        <v>0.04825226554165102</v>
       </c>
       <c r="Q11">
-        <v>0.1099805880772655</v>
+        <v>0.1093691400370868</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1242142193062394</v>
+        <v>0.1232761662929324</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>3.939171897261902E-05</v>
+        <v>0.001950654918438338</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1951,82 +1951,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02297400770499618</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2346523810413993</v>
+        <v>0.2525082697093372</v>
       </c>
       <c r="F2">
-        <v>0.4775497162572767</v>
+        <v>0.5471005525352262</v>
       </c>
       <c r="G2">
-        <v>0.5472086163727191</v>
+        <v>0.6081626941858899</v>
       </c>
       <c r="H2">
-        <v>0.5963413960733752</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="I2">
-        <v>0.6166152298967834</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="J2">
-        <v>0.6166152298967834</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="K2">
-        <v>0.6314610951316878</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="L2">
-        <v>0.6314610951316878</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="M2">
-        <v>0.6363792569143981</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="N2">
-        <v>0.6363792569143981</v>
+        <v>0.641555065006162</v>
       </c>
       <c r="O2">
-        <v>0.6752725705193275</v>
+        <v>0.6611443559180541</v>
       </c>
       <c r="P2">
-        <v>0.874123402836443</v>
+        <v>0.8963607500489232</v>
       </c>
       <c r="Q2">
-        <v>0.874123402836443</v>
+        <v>0.8963607500489232</v>
       </c>
       <c r="R2">
-        <v>0.9753670550354755</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9753670550354755</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9753670550354755</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9757498422244243</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9757498422244243</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9757498422244243</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9843633185818619</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9843633185818619</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9857505949022712</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9883985004939224</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9883985004939224</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9883985004939224</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -2064,55 +2064,55 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06922391149942056</v>
+        <v>0.06649175130196754</v>
       </c>
       <c r="E3">
-        <v>0.2166888459275567</v>
+        <v>0.2259478327740625</v>
       </c>
       <c r="F3">
-        <v>0.4072001967003808</v>
+        <v>0.436550756553604</v>
       </c>
       <c r="G3">
-        <v>0.4193633860261619</v>
+        <v>0.436550756553604</v>
       </c>
       <c r="H3">
-        <v>0.4863737613487973</v>
+        <v>0.5004124309434936</v>
       </c>
       <c r="I3">
-        <v>0.5019159128831293</v>
+        <v>0.5031206493786327</v>
       </c>
       <c r="J3">
-        <v>0.5019159128831293</v>
+        <v>0.5031206493786327</v>
       </c>
       <c r="K3">
-        <v>0.5359835088876238</v>
+        <v>0.5278404094808793</v>
       </c>
       <c r="L3">
-        <v>0.5359835088876238</v>
+        <v>0.5278404094808793</v>
       </c>
       <c r="M3">
-        <v>0.5359835088876238</v>
+        <v>0.5278404094808793</v>
       </c>
       <c r="N3">
-        <v>0.5459584523953528</v>
+        <v>0.5278404094808793</v>
       </c>
       <c r="O3">
-        <v>0.6101653957573154</v>
+        <v>0.5883711052530823</v>
       </c>
       <c r="P3">
-        <v>0.8373551647048404</v>
+        <v>0.8425545504736269</v>
       </c>
       <c r="Q3">
-        <v>0.8373551647048404</v>
+        <v>0.8425545504736269</v>
       </c>
       <c r="R3">
-        <v>0.9795953807910736</v>
+        <v>0.9958027320129064</v>
       </c>
       <c r="S3">
-        <v>0.983204628441135</v>
+        <v>0.9958027320129064</v>
       </c>
       <c r="T3">
-        <v>0.983204628441135</v>
+        <v>0.9958027320129064</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -2177,106 +2177,106 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3735423196464312</v>
+        <v>0.4844663408805258</v>
       </c>
       <c r="E4">
-        <v>0.4684654420095384</v>
+        <v>0.5812838023926959</v>
       </c>
       <c r="F4">
-        <v>0.583948701542369</v>
+        <v>0.7067070247828513</v>
       </c>
       <c r="G4">
-        <v>0.6121464422905574</v>
+        <v>0.7106880282883379</v>
       </c>
       <c r="H4">
-        <v>0.6462477654329918</v>
+        <v>0.7228828129033188</v>
       </c>
       <c r="I4">
-        <v>0.6462477654329918</v>
+        <v>0.7228828129033188</v>
       </c>
       <c r="J4">
-        <v>0.6803805738862866</v>
+        <v>0.7351214037082199</v>
       </c>
       <c r="K4">
-        <v>0.6803805738862866</v>
+        <v>0.7351214037082199</v>
       </c>
       <c r="L4">
-        <v>0.6803805738862866</v>
+        <v>0.7351214037082199</v>
       </c>
       <c r="M4">
-        <v>0.6910405221403074</v>
+        <v>0.7351214037082199</v>
       </c>
       <c r="N4">
-        <v>0.6910405221403074</v>
+        <v>0.7351214037082199</v>
       </c>
       <c r="O4">
-        <v>0.8597575037226536</v>
+        <v>0.9346098480870696</v>
       </c>
       <c r="P4">
-        <v>0.8757499870333283</v>
+        <v>0.9346098480870696</v>
       </c>
       <c r="Q4">
-        <v>0.9480850090836414</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.9603976203720235</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9651697925773621</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.9651697925773621</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9651697925773621</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9651697925773621</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9651697925773621</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.96599569371979</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.96599569371979</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9789046258699454</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9789046258699454</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9789046258699454</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9903245120078477</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,88 +2293,88 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01855793188252013</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1306352790675177</v>
+        <v>0.1246384801741895</v>
       </c>
       <c r="G5">
-        <v>0.3620226431781884</v>
+        <v>0.4221791906399376</v>
       </c>
       <c r="H5">
-        <v>0.4261705970533238</v>
+        <v>0.4773591357025354</v>
       </c>
       <c r="I5">
-        <v>0.494517334084099</v>
+        <v>0.5386238923411218</v>
       </c>
       <c r="J5">
-        <v>0.5101631393312887</v>
+        <v>0.5386238923411218</v>
       </c>
       <c r="K5">
-        <v>0.5101631393312887</v>
+        <v>0.5386238923411218</v>
       </c>
       <c r="L5">
-        <v>0.5660029694814406</v>
+        <v>0.5817638330637424</v>
       </c>
       <c r="M5">
-        <v>0.5660029694814406</v>
+        <v>0.5817638330637424</v>
       </c>
       <c r="N5">
-        <v>0.5660029694814406</v>
+        <v>0.5817638330637424</v>
       </c>
       <c r="O5">
-        <v>0.605619551264635</v>
+        <v>0.6013932932961262</v>
       </c>
       <c r="P5">
-        <v>0.6813796701440661</v>
+        <v>0.6734014081930063</v>
       </c>
       <c r="Q5">
-        <v>0.8269555846788251</v>
+        <v>0.8465854938041139</v>
       </c>
       <c r="R5">
-        <v>0.8269555846788251</v>
+        <v>0.8465854938041139</v>
       </c>
       <c r="S5">
-        <v>0.9588896343824245</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9588896343824245</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9588896343824245</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9802030542583191</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9802030542583191</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9802030542583191</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9802030542583191</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9802030542583191</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.98572469934246</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.98572469934246</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.98572469934246</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.98572469934246</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9870817752547566</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9904286630846789</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -2403,106 +2403,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02514449096108457</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2692907514248122</v>
+        <v>0.3074547683701666</v>
       </c>
       <c r="F6">
-        <v>0.519313301143512</v>
+        <v>0.6231870243223471</v>
       </c>
       <c r="G6">
-        <v>0.5688217414721292</v>
+        <v>0.6564701055524722</v>
       </c>
       <c r="H6">
-        <v>0.6049534283160375</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="I6">
-        <v>0.6049534283160375</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="J6">
-        <v>0.6049534283160375</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="K6">
-        <v>0.6236628094843939</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="L6">
-        <v>0.6236628094843939</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="M6">
-        <v>0.6239630538048313</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="N6">
-        <v>0.6239630538048313</v>
+        <v>0.6709103582469449</v>
       </c>
       <c r="O6">
-        <v>0.6757224463972171</v>
+        <v>0.7073641869679778</v>
       </c>
       <c r="P6">
-        <v>0.8165571990679246</v>
+        <v>0.8692917891741807</v>
       </c>
       <c r="Q6">
-        <v>0.8165571990679246</v>
+        <v>0.8692917891741807</v>
       </c>
       <c r="R6">
-        <v>0.9288585002235928</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="S6">
-        <v>0.9288585002235928</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="T6">
-        <v>0.9321359020358823</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="U6">
-        <v>0.9321359020358823</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="V6">
-        <v>0.9321359020358823</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="W6">
-        <v>0.9321359020358823</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="X6">
-        <v>0.9357185580073952</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="Y6">
-        <v>0.9357185580073952</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="Z6">
-        <v>0.9391703804843954</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="AA6">
-        <v>0.9440070032779564</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="AB6">
-        <v>0.9440070032779564</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="AC6">
-        <v>0.9677491991081291</v>
+        <v>0.9910264600355075</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2516,106 +2516,106 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2990068341665355</v>
+        <v>0.4412427660227553</v>
       </c>
       <c r="E7">
-        <v>0.3013553215549799</v>
+        <v>0.4412427660227553</v>
       </c>
       <c r="F7">
-        <v>0.3911672713204316</v>
+        <v>0.5406830121324676</v>
       </c>
       <c r="G7">
-        <v>0.4155976736251153</v>
+        <v>0.5406830121324676</v>
       </c>
       <c r="H7">
-        <v>0.4764918121383497</v>
+        <v>0.5928745849073821</v>
       </c>
       <c r="I7">
-        <v>0.5070499428545507</v>
+        <v>0.5955002998038235</v>
       </c>
       <c r="J7">
-        <v>0.5070499428545507</v>
+        <v>0.5955002998038235</v>
       </c>
       <c r="K7">
-        <v>0.5070499428545507</v>
+        <v>0.5955002998038235</v>
       </c>
       <c r="L7">
-        <v>0.5252470060893292</v>
+        <v>0.5955002998038235</v>
       </c>
       <c r="M7">
-        <v>0.5252470060893292</v>
+        <v>0.5955002998038235</v>
       </c>
       <c r="N7">
-        <v>0.6346570013291236</v>
+        <v>0.7269616985706802</v>
       </c>
       <c r="O7">
-        <v>0.7422792422478051</v>
+        <v>0.8555020941127625</v>
       </c>
       <c r="P7">
-        <v>0.7569492468999985</v>
+        <v>0.8555020941127625</v>
       </c>
       <c r="Q7">
-        <v>0.7664047264024545</v>
+        <v>0.8555020941127625</v>
       </c>
       <c r="R7">
-        <v>0.838891834732872</v>
+        <v>0.9266353647601345</v>
       </c>
       <c r="S7">
-        <v>0.8888939350820174</v>
+        <v>0.9610304885342371</v>
       </c>
       <c r="T7">
-        <v>0.9015070392459393</v>
+        <v>0.9610304885342371</v>
       </c>
       <c r="U7">
-        <v>0.9543088220099658</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.9559684060387054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.9564031995106055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.9564031995106055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.9564554497078545</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.9693593572249813</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.9818708618130473</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.9961775895805797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2635,70 +2635,70 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3916820900601234</v>
+        <v>0.4492301901685207</v>
       </c>
       <c r="G8">
-        <v>0.5735984443525853</v>
+        <v>0.6469863547287342</v>
       </c>
       <c r="H8">
-        <v>0.7140020903584321</v>
+        <v>0.7949757266879809</v>
       </c>
       <c r="I8">
-        <v>0.7254722087147576</v>
+        <v>0.7949757266879809</v>
       </c>
       <c r="J8">
-        <v>0.7254722087147576</v>
+        <v>0.7949757266879809</v>
       </c>
       <c r="K8">
-        <v>0.7502152332978298</v>
+        <v>0.8043073623534457</v>
       </c>
       <c r="L8">
-        <v>0.7502152332978298</v>
+        <v>0.8043073623534457</v>
       </c>
       <c r="M8">
-        <v>0.7502152332978298</v>
+        <v>0.8043073623534457</v>
       </c>
       <c r="N8">
-        <v>0.7591759448581298</v>
+        <v>0.8043073623534457</v>
       </c>
       <c r="O8">
-        <v>0.798978533791267</v>
+        <v>0.8316928963696536</v>
       </c>
       <c r="P8">
-        <v>0.814484739320084</v>
+        <v>0.8316928963696536</v>
       </c>
       <c r="Q8">
-        <v>0.9254591255731186</v>
+        <v>0.9444015090875088</v>
       </c>
       <c r="R8">
-        <v>0.9254591255731186</v>
+        <v>0.9444015090875088</v>
       </c>
       <c r="S8">
-        <v>0.9887954041078537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T8">
-        <v>0.9887954041078537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U8">
-        <v>0.989931734889967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V8">
-        <v>0.989931734889967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W8">
-        <v>0.9967727204450891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X8">
-        <v>0.9967727204450891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.9967727204450891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.9967727204450891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.9967727204450891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB8">
         <v>0.9999999999999999</v>
@@ -2742,82 +2742,82 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09214621883094597</v>
+        <v>0.0934059731365308</v>
       </c>
       <c r="E9">
-        <v>0.3172509832142686</v>
+        <v>0.3387761966277165</v>
       </c>
       <c r="F9">
-        <v>0.6111999434619038</v>
+        <v>0.6628315213459461</v>
       </c>
       <c r="G9">
-        <v>0.6892186105849828</v>
+        <v>0.7400904856857622</v>
       </c>
       <c r="H9">
-        <v>0.6892186105849828</v>
+        <v>0.7400904856857622</v>
       </c>
       <c r="I9">
-        <v>0.6892186105849828</v>
+        <v>0.7400904856857622</v>
       </c>
       <c r="J9">
-        <v>0.7082396766977606</v>
+        <v>0.7499184611184255</v>
       </c>
       <c r="K9">
-        <v>0.7375680496912437</v>
+        <v>0.7715271171895119</v>
       </c>
       <c r="L9">
-        <v>0.7375680496912437</v>
+        <v>0.7715271171895119</v>
       </c>
       <c r="M9">
-        <v>0.7685028957871145</v>
+        <v>0.7949718830022102</v>
       </c>
       <c r="N9">
-        <v>0.7685028957871145</v>
+        <v>0.7949718830022102</v>
       </c>
       <c r="O9">
-        <v>0.7800843132356924</v>
+        <v>0.7962967522414339</v>
       </c>
       <c r="P9">
-        <v>0.8499624926792924</v>
+        <v>0.8642515902267238</v>
       </c>
       <c r="Q9">
-        <v>0.8499624926792924</v>
+        <v>0.8642515902267238</v>
       </c>
       <c r="R9">
-        <v>0.9623845087971048</v>
+        <v>0.9808316761834631</v>
       </c>
       <c r="S9">
-        <v>0.9623845087971048</v>
+        <v>0.9808316761834631</v>
       </c>
       <c r="T9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="U9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="V9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="W9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="X9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="Y9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="Z9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="AA9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="AB9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="AC9">
-        <v>0.9863734172640191</v>
+        <v>0.9963376201595554</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -2855,106 +2855,106 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3092831755925045</v>
+        <v>0.3065342685920178</v>
       </c>
       <c r="E10">
-        <v>0.3092831755925045</v>
+        <v>0.3065342685920178</v>
       </c>
       <c r="F10">
-        <v>0.5047326262296765</v>
+        <v>0.5006197139409259</v>
       </c>
       <c r="G10">
-        <v>0.5389729922719013</v>
+        <v>0.5354573452881931</v>
       </c>
       <c r="H10">
-        <v>0.5389729922719013</v>
+        <v>0.5354573452881931</v>
       </c>
       <c r="I10">
-        <v>0.5944748392939161</v>
+        <v>0.5912977903228915</v>
       </c>
       <c r="J10">
-        <v>0.5944748392939161</v>
+        <v>0.5912977903228915</v>
       </c>
       <c r="K10">
-        <v>0.5944748392939161</v>
+        <v>0.5923116241060156</v>
       </c>
       <c r="L10">
-        <v>0.5944748392939161</v>
+        <v>0.5923116241060156</v>
       </c>
       <c r="M10">
-        <v>0.6428210203064615</v>
+        <v>0.6410834590025385</v>
       </c>
       <c r="N10">
-        <v>0.6552567093602493</v>
+        <v>0.6543816891793004</v>
       </c>
       <c r="O10">
-        <v>0.7543916089479754</v>
+        <v>0.7533243468266868</v>
       </c>
       <c r="P10">
-        <v>0.8687181157302973</v>
+        <v>0.867273790493543</v>
       </c>
       <c r="Q10">
-        <v>0.8687181157302973</v>
+        <v>0.867273790493543</v>
       </c>
       <c r="R10">
-        <v>0.9499783986573546</v>
+        <v>0.9485592941630323</v>
       </c>
       <c r="S10">
-        <v>0.9723694071448722</v>
+        <v>0.9716917273035597</v>
       </c>
       <c r="T10">
-        <v>0.9723694071448722</v>
+        <v>0.9716917273035597</v>
       </c>
       <c r="U10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2971,103 +2971,103 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09466351187171496</v>
+        <v>0.09440352953849744</v>
       </c>
       <c r="F11">
-        <v>0.3120884650404225</v>
+        <v>0.3087516157300765</v>
       </c>
       <c r="G11">
-        <v>0.6190537489367764</v>
+        <v>0.6105854397741073</v>
       </c>
       <c r="H11">
-        <v>0.6892453418679086</v>
+        <v>0.6810785831460141</v>
       </c>
       <c r="I11">
-        <v>0.6892453418679086</v>
+        <v>0.6810785831460141</v>
       </c>
       <c r="J11">
-        <v>0.6892453418679086</v>
+        <v>0.6829907502280598</v>
       </c>
       <c r="K11">
-        <v>0.689337265890719</v>
+        <v>0.68499273204383</v>
       </c>
       <c r="L11">
-        <v>0.6897269230279803</v>
+        <v>0.6872856151885232</v>
       </c>
       <c r="M11">
-        <v>0.6897269230279803</v>
+        <v>0.6872856151885232</v>
       </c>
       <c r="N11">
-        <v>0.7183374103520516</v>
+        <v>0.7171517732098915</v>
       </c>
       <c r="O11">
-        <v>0.7183374103520516</v>
+        <v>0.7171517732098915</v>
       </c>
       <c r="P11">
-        <v>0.7657658008975224</v>
+        <v>0.7654040387515426</v>
       </c>
       <c r="Q11">
-        <v>0.875746388974788</v>
+        <v>0.8747731787886294</v>
       </c>
       <c r="R11">
-        <v>0.875746388974788</v>
+        <v>0.8747731787886294</v>
       </c>
       <c r="S11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="T11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="U11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="V11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="W11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="X11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="Y11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="Z11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="AA11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="AB11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="AC11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="AD11">
-        <v>0.9999606082810273</v>
+        <v>0.9980493450815617</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3129,34 +3129,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5471005525352262</v>
       </c>
       <c r="F2">
-        <v>0.5472086163727191</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>50</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3170,34 +3170,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5004124309434936</v>
       </c>
       <c r="F3">
-        <v>0.5019159128831293</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>50</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3211,34 +3211,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5812838023926959</v>
       </c>
       <c r="F4">
-        <v>0.583948701542369</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>50</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3252,34 +3252,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5386238923411218</v>
       </c>
       <c r="F5">
-        <v>0.5101631393312887</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>50</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3293,34 +3293,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.6231870243223471</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.519313301143512</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>50</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3334,34 +3334,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5406830121324676</v>
       </c>
       <c r="F7">
-        <v>0.5070499428545507</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>50</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3375,34 +3375,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6469863547287342</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5735984443525853</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>50</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3416,34 +3416,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6628315213459461</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6111999434619038</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>50</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3457,34 +3457,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.5006197139409259</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5047326262296765</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>50</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3498,34 +3498,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6105854397741073</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.6190537489367764</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>50</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -3593,34 +3593,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.8963607500489232</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.874123402836443</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>50</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3634,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8425545504736269</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8373551647048404</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>50</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3675,34 +3675,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7067070247828513</v>
       </c>
       <c r="F4">
-        <v>0.8597575037226536</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>50</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3716,34 +3716,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.8465854938041139</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8269555846788251</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>50</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3757,34 +3757,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7073641869679778</v>
       </c>
       <c r="F6">
-        <v>0.8165571990679246</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>50</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3798,34 +3798,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7269616985706802</v>
       </c>
       <c r="F7">
-        <v>0.7422792422478051</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>50</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3839,34 +3839,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.7949757266879809</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7140020903584321</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>50</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3880,34 +3880,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7400904856857622</v>
       </c>
       <c r="F9">
-        <v>0.7082396766977606</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>50</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3921,34 +3921,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7533243468266868</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7543916089479754</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>50</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3962,34 +3962,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7171517732098915</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7183374103520516</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>50</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4057,34 +4057,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.8963607500489232</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.874123402836443</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>50</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4098,34 +4098,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8425545504736269</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8373551647048404</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>50</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4139,34 +4139,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9346098480870696</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8597575037226536</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>50</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4180,34 +4180,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.8465854938041139</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8269555846788251</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>50</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4221,34 +4221,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.8692917891741807</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8165571990679246</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>50</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4262,34 +4262,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8555020941127625</v>
       </c>
       <c r="F7">
-        <v>0.838891834732872</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>50</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4303,34 +4303,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8043073623534457</v>
       </c>
       <c r="F8">
-        <v>0.814484739320084</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>50</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4344,34 +4344,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8642515902267238</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8499624926792924</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>50</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4385,34 +4385,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.867273790493543</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8687181157302973</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>14</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>50</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4426,34 +4426,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.8747731787886294</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.875746388974788</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>50</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4521,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9753670550354755</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>50</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4562,34 +4562,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9958027320129064</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9795953807910736</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>50</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4603,34 +4603,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9346098480870696</v>
       </c>
       <c r="F4">
-        <v>0.9480850090836414</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>50</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4644,34 +4644,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9588896343824245</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>50</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4685,34 +4685,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.9910264600355075</v>
+      </c>
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9288585002235928</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>50</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4726,34 +4726,34 @@
         <v>42</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9266353647601345</v>
       </c>
       <c r="F7">
-        <v>0.9015070392459393</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>50</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4767,34 +4767,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9444015090875088</v>
+      </c>
+      <c r="F8">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9254591255731186</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>50</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4808,34 +4808,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9808316761834631</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9623845087971048</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>50</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4849,34 +4849,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9485592941630323</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9499783986573546</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>50</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4890,34 +4890,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9980493450815617</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9999606082810273</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>50</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
